--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/RptRelationSelf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/RptRelationSelf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F2CEEE-C169-452E-B2EB-519E04552ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38260E-3EA1-418F-B392-2D7E12E6F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -204,6 +200,9 @@
   <si>
     <t>LAW010</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -389,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,10 +404,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -421,9 +420,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,13 +431,10 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,15 +445,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -513,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,9 +537,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,26 +572,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,26 +607,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -836,106 +786,106 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -954,397 +904,397 @@
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="25">
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="20">
         <v>20</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>3</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>4</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="20">
         <v>1</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>9</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="25">
-        <v>2</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="D19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="20">
+        <v>10</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
-        <v>8</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="25">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
-        <v>9</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="25">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>10</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
-        <v>11</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="25">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="F26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="25">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>13</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="25">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
-        <v>14</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="25">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
-        <v>16</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="25">
-        <v>10</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
-        <v>17</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>18</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="E28" s="20">
         <v>6</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
-        <v>19</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>20</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="25">
-        <v>6</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
